--- a/WebAppWorkflow/analytical/analytical_solution.xlsx
+++ b/WebAppWorkflow/analytical/analytical_solution.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="56">
   <si>
     <t>Dati</t>
   </si>
@@ -58,21 +58,6 @@
   </si>
   <si>
     <t>Tasso di arrivo [req/s]</t>
-  </si>
-  <si>
-    <t>Tempo medio di servizio richiesto per i job di Classe 1 al Server A se il server A avesse capacità 1 [s]</t>
-  </si>
-  <si>
-    <t>Tempo medio di servizio richiesto per i job (di Classe 1) al Server B se il server B avesse capacità 1 [s]</t>
-  </si>
-  <si>
-    <t>Tempo medio di servizio richiesto per i job di Classe 2 al Server A se il server A avesse capacità 1 [s]</t>
-  </si>
-  <si>
-    <t>Tempo medio di servizio richiesto per i job (di Classe 2) al Server P se il server P avesse capacità 1 [s]</t>
-  </si>
-  <si>
-    <t>Tempo medio di servizio richiesto per i job di Classe 3 al Server A se il server A avesse capacità 1 [s]</t>
   </si>
   <si>
     <t>Sistema</t>
@@ -203,47 +188,6 @@
     <t>Collo di bottiglia del sistema</t>
   </si>
   <si>
-    <t>λ_A</t>
-  </si>
-  <si>
-    <t>λ_B</t>
-  </si>
-  <si>
-    <t>λ_P</t>
-  </si>
-  <si>
-    <t>Throughput del Server A</t>
-  </si>
-  <si>
-    <t>Throughput del Server B</t>
-  </si>
-  <si>
-    <t>Throughput del Server P</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Server B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: è il server più lento (ha il throughput più basso)</t>
-    </r>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -267,6 +211,44 @@
     </r>
   </si>
   <si>
+    <t>Tempo medio di servizio richiesto per i job di Classe 1 al Server A se il Server A avesse capacità 1 [s]</t>
+  </si>
+  <si>
+    <t>Tempo medio di servizio richiesto per i job (di Classe 1) al Server B se il Server B avesse capacità 1 [s]</t>
+  </si>
+  <si>
+    <t>Tempo medio di servizio richiesto per i job di Classe 2 al Server A se il Server A avesse capacità 1 [s]</t>
+  </si>
+  <si>
+    <t>Tempo medio di servizio richiesto per i job (di Classe 2) al Server P se il Server P avesse capacità 1 [s]</t>
+  </si>
+  <si>
+    <t>Tempo medio di servizio richiesto per i job di Classe 3 al Server A se il Server A avesse capacità 1 [s]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Server B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: è il server più lento</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -286,7 +268,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: è il server più lento (ha il throughput più basso)</t>
+      <t>: è il server più lento</t>
     </r>
   </si>
 </sst>
@@ -382,7 +364,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -453,19 +435,6 @@
       </right>
       <top style="medium">
         <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
       </top>
       <bottom style="medium">
         <color auto="1"/>
@@ -627,17 +596,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -646,51 +611,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -702,20 +664,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -725,59 +674,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -931,13 +897,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1440180</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1813560</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -993,13 +959,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1455420</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1828800</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1055,13 +1021,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1455420</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1828800</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1117,13 +1083,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1455420</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1828800</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1246,13 +1212,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1440180</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1813560</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1308,13 +1274,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1455420</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1828800</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1370,13 +1336,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1455420</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1828800</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1432,13 +1398,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1455420</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1828800</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1618,13 +1584,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1440180</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1813560</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1680,13 +1646,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1455420</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1828800</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1742,13 +1708,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1455420</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1828800</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1804,13 +1770,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1455420</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1828800</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1995,13 +1961,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1440180</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1813560</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2057,13 +2023,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1455420</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1828800</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2119,13 +2085,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1455420</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1828800</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2181,13 +2147,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1455420</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1828800</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2305,13 +2271,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1440180</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1813560</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2367,13 +2333,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1455420</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1828800</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2429,13 +2395,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1455420</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1828800</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2491,13 +2457,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1455420</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1828800</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2620,13 +2586,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1440180</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1813560</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2682,13 +2648,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1455420</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1828800</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2744,13 +2710,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1455420</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1828800</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2806,13 +2772,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1455420</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1828800</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2824,6 +2790,68 @@
         <a:xfrm>
           <a:off x="4808220" y="12321540"/>
           <a:ext cx="373380" cy="655320"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00D661"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1417320</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1790700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Freccia in giù 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="1905000"/>
+          <a:ext cx="373380" cy="662940"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -3130,10 +3158,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3147,472 +3175,440 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="2"/>
+      <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="33"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="44"/>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="2">
         <v>1.2</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="5">
         <v>0.2</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>12</v>
+      <c r="D5" s="16" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="3">
         <v>0.8</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>13</v>
+      <c r="D6" s="17" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="15" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="4">
         <v>0.4</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="D7" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="4">
         <v>0.4</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>15</v>
+      <c r="D8" s="19" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="13"/>
-      <c r="B9" s="16" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="14">
         <v>0.1</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>16</v>
+      <c r="D9" s="20" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="25"/>
+      <c r="B11" s="22"/>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="36">
+      <c r="B17" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="28">
         <f xml:space="preserve"> ROUND(C5 + C6 + C7 + C8 + C9,6)</f>
         <v>1.9</v>
       </c>
-      <c r="D17" s="27" t="s">
-        <v>20</v>
+      <c r="D17" s="24" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C20" s="42"/>
+      <c r="C20" s="34"/>
     </row>
     <row r="23" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="30"/>
+      <c r="B24" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="46"/>
+      <c r="D24" s="47"/>
     </row>
     <row r="25" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="37">
+      <c r="C26" s="29">
         <f xml:space="preserve"> ROUND(C5 + C7 + C9,6)</f>
         <v>0.7</v>
       </c>
-      <c r="D26" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="34" t="s">
-        <v>49</v>
+      <c r="D26" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="38">
+      <c r="B27" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="30">
         <f xml:space="preserve"> ROUND(MIN(C4 * C26, 1),6)</f>
         <v>0.84</v>
       </c>
-      <c r="D27" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="46" t="str">
+      <c r="D27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="37" t="str">
         <f xml:space="preserve"> IF(C27&lt;1, "Si", "No")</f>
         <v>Si</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="39">
+      <c r="B28" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="31">
         <f xml:space="preserve"> IF(F27="No", "∞", ROUND(C26 / (1 - C27),6))</f>
         <v>4.375</v>
       </c>
-      <c r="D28" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" s="31"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="48">
+      <c r="D28" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="25"/>
+    </row>
+    <row r="29" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="39">
         <f xml:space="preserve"> IF(F27="No", "∞", ROUND(C27 / (1 - C27),6))</f>
         <v>5.25</v>
       </c>
-      <c r="D29" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="40">
-        <f xml:space="preserve"> ROUND(1 / C26,6)</f>
-        <v>1.428571</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D31" s="31"/>
-    </row>
-    <row r="36" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+      <c r="D29" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+    </row>
+    <row r="35" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="46"/>
+      <c r="D36" s="47"/>
+    </row>
     <row r="37" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="29"/>
-      <c r="D37" s="30"/>
+      <c r="B37" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37" s="26" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="38" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D38" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="F38" s="34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="41">
+      <c r="B38" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="33">
         <f xml:space="preserve"> ROUND(MIN(C6 * C4, 1),6)</f>
         <v>0.96</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D38" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="38" t="str">
+        <f xml:space="preserve"> IF(C38&lt;1, "Si", "No")</f>
+        <v>Si</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="31">
+        <f xml:space="preserve"> IF(F38="No", "∞", ROUND(C6 / (1 - C38),6))</f>
+        <v>20</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="39">
+        <f xml:space="preserve"> IF(F38="No", "∞", ROUND(C38 / (1 - C38),6))</f>
+        <v>24</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+    </row>
+    <row r="46" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="F39" s="47" t="str">
-        <f xml:space="preserve"> IF(C39&lt;1, "Si", "No")</f>
-        <v>Si</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="14" t="s">
+      <c r="C47" s="46"/>
+      <c r="D47" s="47"/>
+    </row>
+    <row r="48" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F48" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="39">
-        <f xml:space="preserve"> IF(F39="No", "∞", ROUND(C6 / (1 - C39),6))</f>
-        <v>20</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" s="48">
-        <f xml:space="preserve"> IF(F39="No", "∞", ROUND(C39 / (1 - C39),6))</f>
-        <v>24</v>
-      </c>
-      <c r="D41" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E41" s="9"/>
-    </row>
-    <row r="42" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="40">
-        <f xml:space="preserve"> ROUND(1 / C6,6)</f>
-        <v>1.25</v>
-      </c>
-      <c r="D42" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="E42" s="9"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="31"/>
-    </row>
-    <row r="48" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C49" s="29"/>
-      <c r="D49" s="30"/>
-    </row>
-    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D50" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="F50" s="34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C51" s="41">
+      <c r="C49" s="33">
         <f xml:space="preserve"> ROUND(MIN(C8 * C4, 1),6)</f>
         <v>0.48</v>
       </c>
-      <c r="D51" s="19" t="s">
+      <c r="D49" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F49" s="37" t="str">
+        <f xml:space="preserve"> IF(C49&lt;1, "Si", "No")</f>
+        <v>Si</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="31">
+        <f xml:space="preserve"> IF(F49="No", "∞", ROUND(C8 / (1 - C49),6))</f>
+        <v>0.769231</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F50" s="25"/>
+    </row>
+    <row r="51" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="32">
+        <f xml:space="preserve"> IF(F49="No", "∞", ROUND(C49 / (1 - C49),6))</f>
+        <v>0.92307700000000004</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51" s="6"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="25"/>
+    </row>
+    <row r="57" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="58" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="46"/>
+      <c r="D58" s="47"/>
+    </row>
+    <row r="59" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B60" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C60" s="33">
+        <f xml:space="preserve"> IF(C28="∞", "∞", IF(C39="∞", "∞", IF(C50="∞", "∞", ROUND(C28 + C39 + C50,6))))</f>
+        <v>25.144231000000001</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B61" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61" s="31">
+        <f xml:space="preserve"> IF(C29="∞", "∞", IF(C40="∞", "∞", IF(C51="∞", "∞", ROUND(C29 + C40 + C51,6))))</f>
+        <v>30.173076999999999</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F51" s="46" t="str">
-        <f xml:space="preserve"> IF(C51&lt;1, "Si", "No")</f>
-        <v>Si</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C52" s="39">
-        <f xml:space="preserve"> IF(F51="No", "∞", ROUND(C8 / (1 - C51),6))</f>
-        <v>0.769231</v>
-      </c>
-      <c r="D52" s="20" t="s">
+      <c r="C62" s="32">
+        <f xml:space="preserve"> ROUND(1 / MAX(C26, C6, C8),6)</f>
+        <v>1.25</v>
+      </c>
+      <c r="D62" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F52" s="31"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B53" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C53" s="48">
-        <f xml:space="preserve"> IF(F51="No", "∞", ROUND(C51 / (1 - C51),6))</f>
-        <v>0.92307700000000004</v>
-      </c>
-      <c r="D53" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E53" s="9"/>
-    </row>
-    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="13"/>
-      <c r="B54" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="40">
-        <f xml:space="preserve"> ROUND(1 / C8,6)</f>
-        <v>2.5</v>
-      </c>
-      <c r="D54" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E54" s="9"/>
-    </row>
-    <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C61" s="29"/>
-      <c r="D61" s="30"/>
-    </row>
-    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D62" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B63" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C63" s="41">
-        <f xml:space="preserve"> IF(C28="∞", "∞", IF(C40="∞", "∞", IF(C52="∞", "∞", ROUND(C28 + C40 + C52,6))))</f>
-        <v>25.144231000000001</v>
-      </c>
-      <c r="D63" s="19" t="s">
+    </row>
+    <row r="68" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="69" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C69" s="49"/>
+      <c r="D69" s="50"/>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B70" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C70" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="D70" s="52"/>
+    </row>
+    <row r="71" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="36" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B64" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C64" s="39">
-        <f xml:space="preserve"> IF(C29="∞", "∞", IF(C41="∞", "∞", IF(C53="∞", "∞", ROUND(C29 + C41 + C53,6))))</f>
-        <v>30.173076999999999</v>
-      </c>
-      <c r="D64" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C65" s="40">
-        <f xml:space="preserve"> ROUND(MIN(C30, C42, C54),6)</f>
-        <v>1.25</v>
-      </c>
-      <c r="D65" s="23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="72" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="C72" s="54"/>
-      <c r="D72" s="55"/>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B73" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="C73" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="D73" s="50"/>
-    </row>
-    <row r="74" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="C74" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="D74" s="52"/>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B75" s="31"/>
-      <c r="C75" s="31"/>
-      <c r="D75" s="31"/>
+      <c r="C71" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D71" s="41"/>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B72" s="25"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C71:D71"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="C70:D70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3621,10 +3617,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F75"/>
+  <dimension ref="B1:F72"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3637,461 +3633,430 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="54"/>
     </row>
     <row r="3" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="2">
         <v>1.2</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="5">
         <v>0.2</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>12</v>
+      <c r="D5" s="16" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="3">
         <v>0.8</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>13</v>
+      <c r="D6" s="17" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="4">
         <v>0.4</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="9"/>
+      <c r="D7" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="4">
         <v>0.7</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>15</v>
+      <c r="D8" s="19" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="14">
         <v>0.15</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>16</v>
+      <c r="D9" s="20" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="36">
+      <c r="B17" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="28">
         <f xml:space="preserve"> ROUND(C5 + C6 + C7 + C8 + C9,6)</f>
         <v>2.25</v>
       </c>
-      <c r="D17" s="27" t="s">
-        <v>20</v>
+      <c r="D17" s="24" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C20" s="42"/>
+      <c r="C20" s="34"/>
     </row>
     <row r="23" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="30"/>
+      <c r="B24" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="46"/>
+      <c r="D24" s="47"/>
     </row>
     <row r="25" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="37">
+      <c r="C26" s="29">
         <f xml:space="preserve"> ROUND(C5 + C7 + C9,6)</f>
         <v>0.75</v>
       </c>
-      <c r="D26" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="34" t="s">
-        <v>49</v>
+      <c r="D26" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="38">
+      <c r="B27" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="30">
         <f xml:space="preserve"> ROUND(MIN(C4 * C26, 1),6)</f>
         <v>0.9</v>
       </c>
-      <c r="D27" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="46" t="str">
+      <c r="D27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="37" t="str">
         <f xml:space="preserve"> IF(C27&lt;1, "Si", "No")</f>
         <v>Si</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="39">
+      <c r="B28" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="31">
         <f xml:space="preserve"> IF(F27="No", "∞", ROUND(C26 / (1 - C27),6))</f>
         <v>7.5</v>
       </c>
-      <c r="D28" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" s="31"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="48">
+      <c r="D28" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="25"/>
+    </row>
+    <row r="29" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="39">
         <f xml:space="preserve"> IF(F27="No", "∞", ROUND(C27 / (1 - C27),6))</f>
         <v>9</v>
       </c>
-      <c r="D29" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="40">
-        <f xml:space="preserve"> ROUND(1 / C26,6)</f>
-        <v>1.3333330000000001</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D31" s="31"/>
-    </row>
-    <row r="36" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+      <c r="D29" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+    </row>
+    <row r="35" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="46"/>
+      <c r="D36" s="47"/>
+    </row>
     <row r="37" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="29"/>
-      <c r="D37" s="30"/>
+      <c r="B37" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37" s="26" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="38" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D38" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="F38" s="34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="41">
+      <c r="B38" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="33">
         <f xml:space="preserve"> ROUND(MIN(C6 * C4, 1),6)</f>
         <v>0.96</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D38" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="38" t="str">
+        <f xml:space="preserve"> IF(C38&lt;1, "Si", "No")</f>
+        <v>Si</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="31">
+        <f xml:space="preserve"> IF(F38="No", "∞", ROUND(C6 / (1 - C38),6))</f>
+        <v>20</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="39">
+        <f xml:space="preserve"> IF(F38="No", "∞", ROUND(C38 / (1 - C38),6))</f>
+        <v>24</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+    </row>
+    <row r="46" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="F39" s="47" t="str">
-        <f xml:space="preserve"> IF(C39&lt;1, "Si", "No")</f>
-        <v>Si</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="14" t="s">
+      <c r="C47" s="46"/>
+      <c r="D47" s="47"/>
+    </row>
+    <row r="48" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F48" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="39">
-        <f xml:space="preserve"> IF(F39="No", "∞", ROUND(C6 / (1 - C39),6))</f>
-        <v>20</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" s="48">
-        <f xml:space="preserve"> IF(F39="No", "∞", ROUND(C39 / (1 - C39),6))</f>
-        <v>24</v>
-      </c>
-      <c r="D41" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E41" s="9"/>
-    </row>
-    <row r="42" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="40">
-        <f xml:space="preserve"> ROUND(1 / C6,6)</f>
-        <v>1.25</v>
-      </c>
-      <c r="D42" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="E42" s="9"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="31"/>
-    </row>
-    <row r="48" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C49" s="29"/>
-      <c r="D49" s="30"/>
-    </row>
-    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D50" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="F50" s="34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C51" s="41">
+      <c r="C49" s="33">
         <f xml:space="preserve"> ROUND(MIN(C8 * C4, 1),6)</f>
         <v>0.84</v>
       </c>
-      <c r="D51" s="19" t="s">
+      <c r="D49" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F49" s="37" t="str">
+        <f xml:space="preserve"> IF(C49&lt;1, "Si", "No")</f>
+        <v>Si</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="31">
+        <f xml:space="preserve"> IF(F49="No", "∞", ROUND(C8 / (1 - C49),6))</f>
+        <v>4.375</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F50" s="25"/>
+    </row>
+    <row r="51" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="39">
+        <f xml:space="preserve"> IF(F49="No", "∞", ROUND(C49 / (1 - C49),6))</f>
+        <v>5.25</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51" s="6"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+    </row>
+    <row r="57" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="58" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="46"/>
+      <c r="D58" s="47"/>
+    </row>
+    <row r="59" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B60" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C60" s="33">
+        <f xml:space="preserve"> IF(C28="∞", "∞", IF(C39="∞", "∞", IF(C50="∞", "∞", ROUND(C28 + C39 + C50,6))))</f>
+        <v>31.875</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B61" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61" s="31">
+        <f xml:space="preserve"> IF(C29="∞", "∞", IF(C40="∞", "∞", IF(C51="∞", "∞", ROUND(C29 + C40 + C51,6))))</f>
+        <v>38.25</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F51" s="46" t="str">
-        <f xml:space="preserve"> IF(C51&lt;1, "Si", "No")</f>
-        <v>Si</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C52" s="39">
-        <f xml:space="preserve"> IF(F51="No", "∞", ROUND(C8 / (1 - C51),6))</f>
-        <v>4.375</v>
-      </c>
-      <c r="D52" s="20" t="s">
+      <c r="C62" s="32">
+        <f xml:space="preserve"> ROUND(1 / MAX(C26, C6, C8),6)</f>
+        <v>1.25</v>
+      </c>
+      <c r="D62" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F52" s="31"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B53" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C53" s="48">
-        <f xml:space="preserve"> IF(F51="No", "∞", ROUND(C51 / (1 - C51),6))</f>
-        <v>5.25</v>
-      </c>
-      <c r="D53" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E53" s="9"/>
-    </row>
-    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="13"/>
-      <c r="B54" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="40">
-        <f xml:space="preserve"> ROUND(1 / C8,6)</f>
-        <v>1.428571</v>
-      </c>
-      <c r="D54" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E54" s="9"/>
-    </row>
-    <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C61" s="29"/>
-      <c r="D61" s="30"/>
-    </row>
-    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D62" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B63" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C63" s="41">
-        <f xml:space="preserve"> IF(C28="∞", "∞", IF(C40="∞", "∞", IF(C52="∞", "∞", ROUND(C28 + C40 + C52,6))))</f>
-        <v>31.875</v>
-      </c>
-      <c r="D63" s="19" t="s">
+    </row>
+    <row r="68" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="69" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C69" s="49"/>
+      <c r="D69" s="50"/>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B70" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C70" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="D70" s="52"/>
+    </row>
+    <row r="71" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="36" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B64" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C64" s="39">
-        <f xml:space="preserve"> IF(C29="∞", "∞", IF(C41="∞", "∞", IF(C53="∞", "∞", ROUND(C29 + C41 + C53,6))))</f>
-        <v>38.25</v>
-      </c>
-      <c r="D64" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C65" s="40">
-        <f xml:space="preserve"> ROUND(MIN(C30, C42, C54),6)</f>
-        <v>1.25</v>
-      </c>
-      <c r="D65" s="23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="72" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="C72" s="54"/>
-      <c r="D72" s="55"/>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B73" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="C73" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="D73" s="50"/>
-    </row>
-    <row r="74" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="C74" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="D74" s="52"/>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B75" s="31"/>
-      <c r="C75" s="31"/>
-      <c r="D75" s="31"/>
+      <c r="C71" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D71" s="41"/>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B72" s="25"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B58:D58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4100,10 +4065,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F75"/>
+  <dimension ref="B1:F72"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74:D74"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4116,464 +4081,431 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="54"/>
     </row>
     <row r="3" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="2">
         <v>1.4</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="5">
         <v>0.2</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>12</v>
+      <c r="D5" s="16" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="3">
         <v>0.8</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>13</v>
+      <c r="D6" s="17" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="4">
         <v>0.4</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="9"/>
+      <c r="D7" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="4">
         <v>0.4</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>15</v>
+      <c r="D8" s="19" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="14">
         <v>0.1</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>16</v>
+      <c r="D9" s="20" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="25"/>
+      <c r="B11" s="22"/>
     </row>
     <row r="15" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="36">
+      <c r="B17" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="28">
         <f xml:space="preserve"> ROUND(C5 + C6 + C7 + C8 + C9,6)</f>
         <v>1.9</v>
       </c>
-      <c r="D17" s="27" t="s">
-        <v>20</v>
+      <c r="D17" s="24" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C20" s="42"/>
+      <c r="C20" s="34"/>
     </row>
     <row r="23" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="30"/>
+      <c r="B24" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="46"/>
+      <c r="D24" s="47"/>
     </row>
     <row r="25" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="37">
+      <c r="C26" s="29">
         <f xml:space="preserve"> ROUND(C5 + C7 + C9,6)</f>
         <v>0.7</v>
       </c>
-      <c r="D26" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="34" t="s">
-        <v>49</v>
+      <c r="D26" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="38">
+      <c r="B27" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="30">
         <f xml:space="preserve"> ROUND(MIN(C4 * C26, 1),6)</f>
         <v>0.98</v>
       </c>
-      <c r="D27" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="46" t="str">
+      <c r="D27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="37" t="str">
         <f xml:space="preserve"> IF(C27&lt;1, "Si", "No")</f>
         <v>Si</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="39">
+      <c r="B28" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="31">
         <f xml:space="preserve"> IF(F27="No", "∞", ROUND(C26 / (1 - C27),6))</f>
         <v>35</v>
       </c>
-      <c r="D28" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" s="31"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="48">
+      <c r="D28" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="25"/>
+    </row>
+    <row r="29" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="32">
         <f xml:space="preserve"> IF(F27="No", "∞", ROUND(C27 / (1 - C27),6))</f>
         <v>49</v>
       </c>
-      <c r="D29" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="40">
-        <f xml:space="preserve"> ROUND(1 / C26,6)</f>
-        <v>1.428571</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D31" s="31"/>
-    </row>
-    <row r="36" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+      <c r="D29" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="25"/>
+      <c r="D30" s="25"/>
+    </row>
+    <row r="35" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="46"/>
+      <c r="D36" s="47"/>
+    </row>
     <row r="37" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="29"/>
-      <c r="D37" s="30"/>
+      <c r="B37" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37" s="26" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="38" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D38" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="F38" s="34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="41">
+      <c r="B38" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="33">
         <f xml:space="preserve"> ROUND(MIN(C6 * C4, 1),6)</f>
         <v>1</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D38" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="38" t="str">
+        <f xml:space="preserve"> IF(C38&lt;1, "Si", "No")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="31" t="str">
+        <f xml:space="preserve"> IF(F38="No", "∞", ROUND(C6 / (1 - C38),6))</f>
+        <v>∞</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="32" t="str">
+        <f xml:space="preserve"> IF(F38="No", "∞", ROUND(C38 / (1 - C38),6))</f>
+        <v>∞</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+    </row>
+    <row r="46" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="F39" s="47" t="str">
-        <f xml:space="preserve"> IF(C39&lt;1, "Si", "No")</f>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="14" t="s">
+      <c r="C47" s="46"/>
+      <c r="D47" s="47"/>
+    </row>
+    <row r="48" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F48" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="39" t="str">
-        <f xml:space="preserve"> IF(F39="No", "∞", ROUND(C6 / (1 - C39),6))</f>
-        <v>∞</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" s="48" t="str">
-        <f xml:space="preserve"> IF(F39="No", "∞", ROUND(C39 / (1 - C39),6))</f>
-        <v>∞</v>
-      </c>
-      <c r="D41" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E41" s="9"/>
-    </row>
-    <row r="42" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="40">
-        <f xml:space="preserve"> ROUND(1 / C6,6)</f>
-        <v>1.25</v>
-      </c>
-      <c r="D42" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="E42" s="9"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="31"/>
-    </row>
-    <row r="48" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C49" s="29"/>
-      <c r="D49" s="30"/>
-    </row>
-    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D50" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="F50" s="34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C51" s="41">
+      <c r="C49" s="33">
         <f xml:space="preserve"> ROUND(MIN(C8 * C4, 1),6)</f>
         <v>0.56000000000000005</v>
       </c>
-      <c r="D51" s="19" t="s">
+      <c r="D49" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F49" s="37" t="str">
+        <f xml:space="preserve"> IF(C49&lt;1, "Si", "No")</f>
+        <v>Si</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="31">
+        <f xml:space="preserve"> IF(F49="No", "∞", ROUND(C8 / (1 - C49),6))</f>
+        <v>0.90909099999999998</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F50" s="25"/>
+    </row>
+    <row r="51" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="39">
+        <f xml:space="preserve"> IF(F49="No", "∞", ROUND(C49 / (1 - C49),6))</f>
+        <v>1.2727269999999999</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51" s="6"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+    </row>
+    <row r="57" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="58" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="46"/>
+      <c r="D58" s="47"/>
+    </row>
+    <row r="59" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B60" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C60" s="33" t="str">
+        <f xml:space="preserve"> IF(C28="∞", "∞", IF(C39="∞", "∞", IF(C50="∞", "∞", ROUND(C28 + C39 + C50,6))))</f>
+        <v>∞</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B61" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61" s="31" t="str">
+        <f xml:space="preserve"> IF(C29="∞", "∞", IF(C40="∞", "∞", IF(C51="∞", "∞", ROUND(C29 + C40 + C51,6))))</f>
+        <v>∞</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F51" s="46" t="str">
-        <f xml:space="preserve"> IF(C51&lt;1, "Si", "No")</f>
-        <v>Si</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C52" s="39">
-        <f xml:space="preserve"> IF(F51="No", "∞", ROUND(C8 / (1 - C51),6))</f>
-        <v>0.90909099999999998</v>
-      </c>
-      <c r="D52" s="20" t="s">
+      <c r="C62" s="32">
+        <f xml:space="preserve"> ROUND(1 / MAX(C26, C6, C8),6)</f>
+        <v>1.25</v>
+      </c>
+      <c r="D62" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F52" s="31"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B53" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C53" s="48">
-        <f xml:space="preserve"> IF(F51="No", "∞", ROUND(C51 / (1 - C51),6))</f>
-        <v>1.2727269999999999</v>
-      </c>
-      <c r="D53" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E53" s="9"/>
-    </row>
-    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="13"/>
-      <c r="B54" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="40">
-        <f xml:space="preserve"> ROUND(1 / C8,6)</f>
-        <v>2.5</v>
-      </c>
-      <c r="D54" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E54" s="9"/>
-    </row>
-    <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C61" s="29"/>
-      <c r="D61" s="30"/>
-    </row>
-    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D62" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B63" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C63" s="41" t="str">
-        <f xml:space="preserve"> IF(C28="∞", "∞", IF(C40="∞", "∞", IF(C52="∞", "∞", ROUND(C28 + C40 + C52,6))))</f>
-        <v>∞</v>
-      </c>
-      <c r="D63" s="19" t="s">
+    </row>
+    <row r="68" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="69" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C69" s="49"/>
+      <c r="D69" s="50"/>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B70" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C70" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="D70" s="52"/>
+    </row>
+    <row r="71" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="36" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B64" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C64" s="39" t="str">
-        <f xml:space="preserve"> IF(C29="∞", "∞", IF(C41="∞", "∞", IF(C53="∞", "∞", ROUND(C29 + C41 + C53,6))))</f>
-        <v>∞</v>
-      </c>
-      <c r="D64" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C65" s="40">
-        <f xml:space="preserve"> ROUND(MIN(C30, C42, C54),6)</f>
-        <v>1.25</v>
-      </c>
-      <c r="D65" s="23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="72" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="C72" s="54"/>
-      <c r="D72" s="55"/>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B73" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="C73" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="D73" s="50"/>
-    </row>
-    <row r="74" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="C74" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="D74" s="52"/>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B75" s="31"/>
-      <c r="C75" s="31"/>
-      <c r="D75" s="31"/>
+      <c r="C71" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D71" s="41"/>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B72" s="25"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B69:D69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4582,10 +4514,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F75"/>
+  <dimension ref="B1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4598,461 +4530,427 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="54"/>
     </row>
     <row r="3" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="2">
         <v>1.4</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="5">
         <v>0.2</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>12</v>
+      <c r="D5" s="16" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="3">
         <v>0.4</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>13</v>
+      <c r="D6" s="17" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="4">
         <v>0.4</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="9"/>
+      <c r="D7" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="4">
         <v>0.4</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>15</v>
+      <c r="D8" s="19" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="14">
         <v>0.1</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>16</v>
+      <c r="D9" s="20" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="36">
+      <c r="B17" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="28">
         <f xml:space="preserve"> ROUND(C5 + C6 + C7 + C8 + C9,6)</f>
         <v>1.5</v>
       </c>
-      <c r="D17" s="27" t="s">
-        <v>20</v>
+      <c r="D17" s="24" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C20" s="42"/>
+      <c r="C20" s="34"/>
     </row>
     <row r="23" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="30"/>
+      <c r="B24" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="46"/>
+      <c r="D24" s="47"/>
     </row>
     <row r="25" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="37">
+      <c r="C26" s="29">
         <f xml:space="preserve"> ROUND(C5 + C7 + C9,6)</f>
         <v>0.7</v>
       </c>
-      <c r="D26" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="34" t="s">
-        <v>49</v>
+      <c r="D26" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="38">
+      <c r="B27" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="30">
         <f xml:space="preserve"> ROUND(MIN(C4 * C26, 1),6)</f>
         <v>0.98</v>
       </c>
-      <c r="D27" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="46" t="str">
+      <c r="D27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="37" t="str">
         <f xml:space="preserve"> IF(C27&lt;1, "Si", "No")</f>
         <v>Si</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="39">
+      <c r="B28" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="31">
         <f xml:space="preserve"> IF(F27="No", "∞", ROUND(C26 / (1 - C27),6))</f>
         <v>35</v>
       </c>
-      <c r="D28" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" s="31"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="48">
+      <c r="D28" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="25"/>
+    </row>
+    <row r="29" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="32">
         <f xml:space="preserve"> IF(F27="No", "∞", ROUND(C27 / (1 - C27),6))</f>
         <v>49</v>
       </c>
-      <c r="D29" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="40">
-        <f xml:space="preserve"> ROUND(1 / C26,6)</f>
-        <v>1.428571</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D31" s="31"/>
-    </row>
-    <row r="36" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+      <c r="D29" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="25"/>
+      <c r="D30" s="25"/>
+    </row>
+    <row r="35" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="46"/>
+      <c r="D36" s="47"/>
+    </row>
     <row r="37" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="29"/>
-      <c r="D37" s="30"/>
+      <c r="B37" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37" s="26" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="38" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D38" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="F38" s="34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="41">
+      <c r="B38" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="33">
         <f xml:space="preserve"> ROUND(MIN(C6 * C4, 1),6)</f>
         <v>0.56000000000000005</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D38" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="38" t="str">
+        <f xml:space="preserve"> IF(C38&lt;1, "Si", "No")</f>
+        <v>Si</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="31">
+        <f xml:space="preserve"> IF(F38="No", "∞", ROUND(C6 / (1 - C38),6))</f>
+        <v>0.90909099999999998</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="32">
+        <f xml:space="preserve"> IF(F38="No", "∞", ROUND(C38 / (1 - C38),6))</f>
+        <v>1.2727269999999999</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="25"/>
+      <c r="D41" s="25"/>
+    </row>
+    <row r="46" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="F39" s="47" t="str">
-        <f xml:space="preserve"> IF(C39&lt;1, "Si", "No")</f>
-        <v>Si</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="14" t="s">
+      <c r="C47" s="46"/>
+      <c r="D47" s="47"/>
+    </row>
+    <row r="48" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F48" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="39">
-        <f xml:space="preserve"> IF(F39="No", "∞", ROUND(C6 / (1 - C39),6))</f>
-        <v>0.90909099999999998</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" s="48">
-        <f xml:space="preserve"> IF(F39="No", "∞", ROUND(C39 / (1 - C39),6))</f>
-        <v>1.2727269999999999</v>
-      </c>
-      <c r="D41" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E41" s="9"/>
-    </row>
-    <row r="42" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="40">
-        <f xml:space="preserve"> ROUND(1 / C6,6)</f>
-        <v>2.5</v>
-      </c>
-      <c r="D42" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="E42" s="9"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="31"/>
-    </row>
-    <row r="48" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C49" s="29"/>
-      <c r="D49" s="30"/>
-    </row>
-    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D50" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="F50" s="34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C51" s="41">
+      <c r="C49" s="33">
         <f xml:space="preserve"> ROUND(MIN(C8 * C4, 1),6)</f>
         <v>0.56000000000000005</v>
       </c>
-      <c r="D51" s="19" t="s">
+      <c r="D49" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F49" s="37" t="str">
+        <f xml:space="preserve"> IF(C49&lt;1, "Si", "No")</f>
+        <v>Si</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="31">
+        <f xml:space="preserve"> IF(F49="No", "∞", ROUND(C8 / (1 - C49),6))</f>
+        <v>0.90909099999999998</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F50" s="25"/>
+    </row>
+    <row r="51" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="32">
+        <f xml:space="preserve"> IF(F49="No", "∞", ROUND(C49 / (1 - C49),6))</f>
+        <v>1.2727269999999999</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51" s="6"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="25"/>
+    </row>
+    <row r="57" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="58" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="46"/>
+      <c r="D58" s="47"/>
+    </row>
+    <row r="59" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B60" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C60" s="33">
+        <f xml:space="preserve"> IF(C28="∞", "∞", IF(C39="∞", "∞", IF(C50="∞", "∞", ROUND(C28 + C39 + C50,6))))</f>
+        <v>36.818182</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B61" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61" s="31">
+        <f xml:space="preserve"> IF(C29="∞", "∞", IF(C40="∞", "∞", IF(C51="∞", "∞", ROUND(C29 + C40 + C51,6))))</f>
+        <v>51.545453999999999</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F51" s="46" t="str">
-        <f xml:space="preserve"> IF(C51&lt;1, "Si", "No")</f>
-        <v>Si</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C52" s="39">
-        <f xml:space="preserve"> IF(F51="No", "∞", ROUND(C8 / (1 - C51),6))</f>
-        <v>0.90909099999999998</v>
-      </c>
-      <c r="D52" s="20" t="s">
+      <c r="C62" s="32">
+        <f xml:space="preserve"> ROUND(1 / MAX(C26, C6, C8),6)</f>
+        <v>1.428571</v>
+      </c>
+      <c r="D62" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F52" s="31"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B53" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C53" s="48">
-        <f xml:space="preserve"> IF(F51="No", "∞", ROUND(C51 / (1 - C51),6))</f>
-        <v>1.2727269999999999</v>
-      </c>
-      <c r="D53" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E53" s="9"/>
-    </row>
-    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="13"/>
-      <c r="B54" s="16" t="s">
+    </row>
+    <row r="68" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="69" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C69" s="49"/>
+      <c r="D69" s="50"/>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B70" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C70" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="D70" s="52"/>
+    </row>
+    <row r="71" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C71" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="C54" s="40">
-        <f xml:space="preserve"> ROUND(1 / C8,6)</f>
-        <v>2.5</v>
-      </c>
-      <c r="D54" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E54" s="9"/>
-    </row>
-    <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C61" s="29"/>
-      <c r="D61" s="30"/>
-    </row>
-    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D62" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B63" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C63" s="41">
-        <f xml:space="preserve"> IF(C28="∞", "∞", IF(C40="∞", "∞", IF(C52="∞", "∞", ROUND(C28 + C40 + C52,6))))</f>
-        <v>36.818182</v>
-      </c>
-      <c r="D63" s="19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B64" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C64" s="39">
-        <f xml:space="preserve"> IF(C29="∞", "∞", IF(C41="∞", "∞", IF(C53="∞", "∞", ROUND(C29 + C41 + C53,6))))</f>
-        <v>51.545453999999999</v>
-      </c>
-      <c r="D64" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C65" s="40">
-        <f xml:space="preserve"> ROUND(MIN(C30, C42, C54),6)</f>
-        <v>1.428571</v>
-      </c>
-      <c r="D65" s="23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="72" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="C72" s="54"/>
-      <c r="D72" s="55"/>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B73" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="C73" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="D73" s="50"/>
-    </row>
-    <row r="74" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="C74" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="D74" s="52"/>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B75" s="31"/>
-      <c r="C75" s="31"/>
-      <c r="D75" s="31"/>
+      <c r="D71" s="41"/>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B72" s="25"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B69:D69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
